--- a/result/merlin_our_abnormal_point_univariate.xlsx
+++ b/result/merlin_our_abnormal_point_univariate.xlsx
@@ -1520,11 +1520,11 @@
       </c>
       <c r="EC2" t="inlineStr">
         <is>
-          <t>{'cluster': 16, 'training': 1329, 'window': 200, 'threshold': 3.0}</t>
+          <t>{'cluster': 15, 'training': 1330, 'window': 200, 'threshold': 8.0}</t>
         </is>
       </c>
       <c r="ED2" t="n">
-        <v>0.2120239068754017</v>
+        <v>0.5077524951193482</v>
       </c>
       <c r="EE2" t="n">
         <v>200</v>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="EA3" t="inlineStr">
         <is>
-          <t>[1600, 1700, 1800, 4000, 4100, 4200, 4400, 4500, 4600, 4700, 4800, 4900]</t>
+          <t>[1600, 1700, 1800, 4000, 4100, 4200, 4400, 4500, 4700, 4800, 4900]</t>
         </is>
       </c>
       <c r="EB3" t="n">
@@ -1938,11 +1938,11 @@
       </c>
       <c r="EC3" t="inlineStr">
         <is>
-          <t>{'cluster': 14, 'training': 1177, 'window': 200, 'threshold': 1.5}</t>
+          <t>{'cluster': 14, 'training': 1256, 'window': 200, 'threshold': 2.5}</t>
         </is>
       </c>
       <c r="ED3" t="n">
-        <v>0.2517397562041879</v>
+        <v>0.7068190251011401</v>
       </c>
       <c r="EE3" t="n">
         <v>200</v>
@@ -2356,11 +2356,11 @@
       </c>
       <c r="EC4" t="inlineStr">
         <is>
-          <t>{'cluster': 12, 'training': 1204, 'window': 200, 'threshold': 1.0}</t>
+          <t>{'cluster': 16, 'training': 1236, 'window': 200, 'threshold': 4.5}</t>
         </is>
       </c>
       <c r="ED4" t="n">
-        <v>0.2564647619146854</v>
+        <v>0.8544361060485244</v>
       </c>
       <c r="EE4" t="n">
         <v>200</v>
@@ -2774,11 +2774,11 @@
       </c>
       <c r="EC5" t="inlineStr">
         <is>
-          <t>{'cluster': 23, 'training': 704, 'window': 200, 'threshold': 9.5}</t>
+          <t>{'cluster': 17, 'training': 751, 'window': 200, 'threshold': 2.5}</t>
         </is>
       </c>
       <c r="ED5" t="n">
-        <v>0.1048812088556588</v>
+        <v>0.5201737459283322</v>
       </c>
       <c r="EE5" t="n">
         <v>402</v>
@@ -3192,11 +3192,11 @@
       </c>
       <c r="EC6" t="inlineStr">
         <is>
-          <t>{'cluster': 20, 'training': 738, 'window': 200, 'threshold': 4.0}</t>
+          <t>{'cluster': 19, 'training': 440, 'window': 200, 'threshold': 3.0}</t>
         </is>
       </c>
       <c r="ED6" t="n">
-        <v>0.1179139178711921</v>
+        <v>0.4550081070046872</v>
       </c>
       <c r="EE6" t="n">
         <v>342</v>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="EA7" t="inlineStr">
         <is>
-          <t>[10500, 10800, 19800]</t>
+          <t>[10500, 10800]</t>
         </is>
       </c>
       <c r="EB7" t="n">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="EC7" t="inlineStr">
         <is>
-          <t>{'cluster': 23, 'training': 3195, 'window': 600, 'threshold': 2.5}</t>
+          <t>{'cluster': 10, 'training': 4479, 'window': 600, 'threshold': 3.5}</t>
         </is>
       </c>
       <c r="ED7" t="n">
-        <v>0.9703007759526372</v>
+        <v>0.4726196799892932</v>
       </c>
       <c r="EE7" t="n">
         <v>402</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="EA8" t="inlineStr">
         <is>
-          <t>[8260, 8860]</t>
+          <t>[340, 360, 380, 740, 820, 1080, 1140, 1240, 1260, 1540, 1660, 1860, 1960, 2040, 2560, 2580, 2880, 3160, 3440, 4000, 4060, 4140, 4160, 4360, 4500, 4800, 5280, 5340, 5420, 5640, 5660, 5760, 5940, 6240, 6440, 6520, 6640, 6740, 6840, 6860, 6880, 6900, 6920, 7040, 7460, 7520, 7640, 7920, 7960, 8560, 8780, 8860, 8940, 9200, 9300, 9320, 9340, 9440, 9740, 9760, 10040, 10060, 10180, 10200, 10460, 10480, 11040, 11060, 11400, 11660, 11680, 11880, 11940, 12300, 12480, 12660, 12720, 12920, 12960, 12980, 13100, 13120, 13160, 13560, 13620, 13760, 13880, 14100, 14120, 14140, 14220, 14260, 14280, 14360, 14400, 14420, 14480, 14780, 14900]</t>
         </is>
       </c>
       <c r="EB8" t="n">
@@ -4028,11 +4028,11 @@
       </c>
       <c r="EC8" t="inlineStr">
         <is>
-          <t>{'cluster': 10, 'training': 1336, 'window': 40, 'threshold': 7.5}</t>
+          <t>{'cluster': 10, 'training': 222, 'window': 40, 'threshold': 4.5}</t>
         </is>
       </c>
       <c r="ED8" t="n">
-        <v>6.090727415168658</v>
+        <v>4.840415807906538</v>
       </c>
       <c r="EE8" t="n">
         <v>134</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="EA9" t="inlineStr">
         <is>
-          <t>[2600]</t>
+          <t>[2300, 4800]</t>
         </is>
       </c>
       <c r="EB9" t="n">
@@ -4446,11 +4446,11 @@
       </c>
       <c r="EC9" t="inlineStr">
         <is>
-          <t>{'cluster': 22, 'training': 1714, 'window': 200, 'threshold': 8.5}</t>
+          <t>{'cluster': 15, 'training': 2915, 'window': 200, 'threshold': 1.5}</t>
         </is>
       </c>
       <c r="ED9" t="n">
-        <v>3.869720253860578</v>
+        <v>2.022873396985233</v>
       </c>
       <c r="EE9" t="n">
         <v>472</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="EA10" t="inlineStr">
         <is>
-          <t>[2250]</t>
+          <t>[300, 375, 2100, 2175, 2250, 2325, 2400]</t>
         </is>
       </c>
       <c r="EB10" t="n">
@@ -4864,11 +4864,11 @@
       </c>
       <c r="EC10" t="inlineStr">
         <is>
-          <t>{'cluster': 15, 'training': 2408, 'window': 150, 'threshold': 3.5}</t>
+          <t>{'cluster': 13, 'training': 178, 'window': 150, 'threshold': 1.0}</t>
         </is>
       </c>
       <c r="ED10" t="n">
-        <v>4.461456558899954</v>
+        <v>2.639962041983381</v>
       </c>
       <c r="EE10" t="n">
         <v>134</v>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="EA11" t="inlineStr">
         <is>
-          <t>[5000, 5050]</t>
+          <t>[5000]</t>
         </is>
       </c>
       <c r="EB11" t="n">
@@ -5282,11 +5282,11 @@
       </c>
       <c r="EC11" t="inlineStr">
         <is>
-          <t>{'cluster': 20, 'training': 1588, 'window': 100, 'threshold': 1.5}</t>
+          <t>{'cluster': 14, 'training': 1011, 'window': 100, 'threshold': 4.5}</t>
         </is>
       </c>
       <c r="ED11" t="n">
-        <v>3.296104221139103</v>
+        <v>3.780867037829012</v>
       </c>
       <c r="EE11" t="n">
         <v>402</v>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="EA13" t="inlineStr">
         <is>
-          <t>[4392, 12810]</t>
+          <t>[4392, 4758, 4941, 6588, 6771, 12810]</t>
         </is>
       </c>
       <c r="EB13" t="n">
@@ -6118,11 +6118,11 @@
       </c>
       <c r="EC13" t="inlineStr">
         <is>
-          <t>{'cluster': 24, 'training': 2764, 'window': 366, 'threshold': 2.5}</t>
+          <t>{'cluster': 18, 'training': 4210, 'window': 366, 'threshold': 8.5}</t>
         </is>
       </c>
       <c r="ED13" t="n">
-        <v>1.659140757052228</v>
+        <v>0.8104959439951926</v>
       </c>
       <c r="EE13" t="n">
         <v>200</v>

--- a/result/merlin_our_abnormal_point_univariate.xlsx
+++ b/result/merlin_our_abnormal_point_univariate.xlsx
@@ -5692,7 +5692,7 @@
       </c>
       <c r="EA12" t="inlineStr">
         <is>
-          <t>[7600, 10800, 11200, 12000]</t>
+          <t>[7600, 11200, 12000]</t>
         </is>
       </c>
       <c r="EB12" t="n">
@@ -5700,11 +5700,11 @@
       </c>
       <c r="EC12" t="inlineStr">
         <is>
-          <t>{'cluster': 26, 'training': 4093, 'window': 800, 'threshold': 4.5}</t>
+          <t>{'cluster': 29, 'training': 4433, 'window': 800, 'threshold': 2.0}</t>
         </is>
       </c>
       <c r="ED12" t="n">
-        <v>1.426469236845151</v>
+        <v>0.7053175210021436</v>
       </c>
       <c r="EE12" t="n">
         <v>236</v>
